--- a/内核选项.xlsx
+++ b/内核选项.xlsx
@@ -4,22 +4,35 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowWidth="27945" windowHeight="12960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="参考文献" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="参考文献" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$E$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$E$67</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="265">
   <si>
     <t>内核参数</t>
   </si>
@@ -628,6 +641,149 @@
     <t>系统同时保持 TIME_WAIT 套接字的最大数量。如果超过这个数字，TIME_WAIT 套接字将立刻被清除并打印警告信息</t>
   </si>
   <si>
+    <t>socket选项</t>
+  </si>
+  <si>
+    <t>内核版本</t>
+  </si>
+  <si>
+    <t>可移植性</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>TCP_CONGESTION</t>
+  </si>
+  <si>
+    <t>2.6.13</t>
+  </si>
+  <si>
+    <t>允许调用者设置socket级别的拥塞控制算法。非特权用户只能选择tcp_allowed_congestion_control中的某个算法。特权用户（具有CAP_NET_ADMIN）可以选择tcp_available_congestion_control中的算法。</t>
+  </si>
+  <si>
+    <t>TCP_CORK</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>如果设置了TCP_CORK选项，则不会发送部分的数据帧。所有在此期间排队的部分数据帧会在取消该选项后一并发送出去。这对于在调用sendfile(2)之前添加头部信息或进行吞吐量优化非常有用。根据当前实现，TCP_CORK选项最多能延迟数据发送200毫秒。如果达到这个时间上限，那么排队的数据将被自动传输。自Linux 2.5.71起，此选项可以与TCP_NODELAY组合使用。</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/3761276/when-should-i-use-tcp-nodelay-and-when-tcp-cork
+https://stackoverflow.com/questions/22124098/is-there-any-significant-difference-between-tcp-cork-and-tcp-nodelay-in-this-use</t>
+  </si>
+  <si>
+    <t>TCP_DEFER_ACCEPT</t>
+  </si>
+  <si>
+    <t>延迟接受传入连接，直到有数据可供读取。选项的参数用于设置延迟接受连接的时间。当设置为一个正整数时，表示在有数据到达之前最多等待指定的秒数后再接受连接</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/wuyongmao/article/details/126237201</t>
+  </si>
+  <si>
+    <t>TCP_INFO</t>
+  </si>
+  <si>
+    <t>用于获取TCP连接的详细信息，包括连接状态、传输队列长度、拥塞窗口大小等。通过使用这个选项，可以获取有关TCP连接的实时性能和状态信息，有助于诊断网络问题和进行性能优化。</t>
+  </si>
+  <si>
+    <t>TCP_KEEPCNT</t>
+  </si>
+  <si>
+    <t>分别控制keepalive的最大探测次数、探测开始前的空闲时间、探测间隔，设置之后会覆盖对应的内核选项。</t>
+  </si>
+  <si>
+    <t>TCP_KEEPIDLE</t>
+  </si>
+  <si>
+    <t>TCP_KEEPINTVL</t>
+  </si>
+  <si>
+    <t>TCP_LINGER2</t>
+  </si>
+  <si>
+    <t>处于TCP_LINGER2状态的孤儿套接字的生存时间，可以覆盖/proc/sys/net/ipv4/tcp_fin_timeout。</t>
+  </si>
+  <si>
+    <t>TCP_MAXSEG</t>
+  </si>
+  <si>
+    <t>&lt;=2.2 or &gt;=2.6.28</t>
+  </si>
+  <si>
+    <t>发送的TCP报文的最大报文段长度。如果在连接建立之前设置还会影响握手报文中向对端通告的MSS值。超过接口MTU的值是无效的。TCP还将对所提供的值施加其最小和最大界限。</t>
+  </si>
+  <si>
+    <t>TCP_NODELAY</t>
+  </si>
+  <si>
+    <t>禁用nagle算法。这意味着即使数据量很小，分段也会被尽可能快地发送。TCP_CORK会覆盖该选项。</t>
+  </si>
+  <si>
+    <t>TCP_QUICKACK</t>
+  </si>
+  <si>
+    <t>2.4.4</t>
+  </si>
+  <si>
+    <t>启用快速ack模式。这个标志不是永久性的，它只是启用了一个从快速确认模式到非快速确认模式之间的切换。TCP协议的后续操作将根据内部协议处理和诸如延迟确认超时发生以及数据传输等因素，再次进入/离开快速确认模式。</t>
+  </si>
+  <si>
+    <t>TCP_SYNCNT</t>
+  </si>
+  <si>
+    <t>TCP在放弃连接的尝试之前SYN包的发送次数，不应该超过255。</t>
+  </si>
+  <si>
+    <t>TCP_USER_TIMEOUT</t>
+  </si>
+  <si>
+    <t>2.6.37</t>
+  </si>
+  <si>
+    <t>这个选项需要一个无符号整数作为参数。当值大于0时，它指定了传输的数据在未被确认或因窗口大小为零而未传输（缓存）的数据在TCP强制关闭相应连接并向应用返回ETIMEDOUT之前可以保留的最长时间，单位是毫秒。如果选项值被指定为0，则TCP将使用系统默认值。
+增加用户超时时间允许TCP连接在没有端到端连通性的情况下生存更长的时间。减少用户超时时间允许应用程序在需要时“快速失败”。否则，在普通的广域网环境中，失败可能需要长达20分钟的当前系统默认值。
+这个选项可以在TCP连接的任何状态下设置，但只在连接的同步状态（ESTABLISHED, FIN-WAIT-1, FIN-WAIT-2, CLOSE-WAIT, CLOSING, 和 LAST-ACK）中有效。此外，当与TCP保活（SO_KEEPALIVE）选项一起使用时，TCP_USER_TIMEOUT将覆盖保活以确定何时因保活失败而关闭连接。
+这个选项对TCP何时重传一个包，或何时发送一个保活探测没有影响。
+像许多其他选项一样，如果它被设置在监听套接字上，这个选项将被accept(2)返回的套接字继承。
+关于用户超时功能的更多细节可以在RFC 793和RFC 5482（"TCP用户超时选项"）中找到。</t>
+  </si>
+  <si>
+    <t>TCP_WINDOW_CLAMP</t>
+  </si>
+  <si>
+    <t>设置TCP接收窗口的上限值。最小值为SOCK_MIN_RCVBUF/2</t>
+  </si>
+  <si>
+    <t>TCP_FASTOPEN</t>
+  </si>
+  <si>
+    <t>此选项在监听套接字上启用快速打开（Fast Open，参见 RFC 7413）。该值指定了待处理SYN的最大长度（类似于listen(2)中的backlog参数）。一旦启用，监听套接字在收到带有TCP快速打开选项的SYN时，会赋予其TCP快速打开cookie。
+更重要的是，它接受带有有效快速打开cookie的SYN中的数据，并回应SYN-ACK以确认数据和SYN序列。当握手尚未完成时，accept(2)返回一个可供读写的套接字。因此，在握手完成之前就可以开始数据交换。这个选项需要在sysctl net.ipv4.tcp_fastopen中启用服务器端支持。对于TCP快速打开客户端支持，请参见MSG_FASTOPEN或TCP_FASTOPEN_CONNECT。</t>
+  </si>
+  <si>
+    <t>TCP_FASTOPEN_CONNECT</t>
+  </si>
+  <si>
+    <t>此选项在主动方（客户端）上启用一种替代方式来执行快速打开（Fast Open）。当此选项启用时，connect(2)的行为将根据目的地是否有可用的快速打开cookie而有所不同。
+如果没有可用的cookie（即首次连接目的地址），connect(2)会像往常一样立即发送一个SYN，不同之处在于SYN会包含一个空的快速打开cookie选项以请求一个cookie。
+如果cookie可用，connect(2)将立即返回0，但是SYN传输将被推迟。随后的write(2)或sendmsg(2)调用会触发带有数据和cookie的快速打开选项的SYN。换句话说，实际的连接操作被推迟到提供数据时。
+注意：虽然这个选项是为了方便设计的，但启用它确实会改变行为，并且某些系统调用可能会设置不同的errno值。有cookie存在时，必须在connect(2)之后立即调用write(2)或sendmsg(2)，以便发送SYN+data来完成3次握手（3WHS）并建立连接。在connect(2)之后立即调用read(2)而不是write(2)会导致阻塞套接字永远阻塞。
+应用程序应该在write(2)或sendmsg(2)之前设置TCP_FASTOPEN_CONNECT套接字选项，或者直接用MSG_FASTOPEN标志调用write(2)或sendmsg(2)，而不是在同一连接上同时使用两者。
+以下是使用这个新选项的典型调用流程：
+                  s = socket();
+                  setsockopt(s, IPPROTO_TCP, TCP_FASTOPEN_CONNECT, 1, ...);
+                  connect(s);
+                  write(s); /* write() should always follow connect()
+                             * in order to trigger SYN to go out. */
+                  read(s)/write(s);
+                  /* ... */
+                  close(s);</t>
+  </si>
+  <si>
     <t>内核文档</t>
   </si>
   <si>
@@ -802,22 +958,19 @@
   </si>
   <si>
     <t>https://git.kernel.org/pub/scm/linux/kernel/git/torvalds/linux.git/commit/?id=4396e46187ca5070219b81773c4e65088dac50cc</t>
-  </si>
-  <si>
-    <t>https://lotabout.me/2021/Linux-TCP-Options/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,6 +990,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1353,137 +1513,137 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1496,6 +1656,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1523,7 +1689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1535,7 +1701,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
@@ -1889,880 +2055,880 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F73"/>
+  <dimension ref="B1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="33.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.5583333333333" style="8" customWidth="1"/>
-    <col min="4" max="4" width="82.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.1333333333333" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="33.75" style="10" customWidth="1"/>
+    <col min="3" max="3" width="23.5583333333333" style="10" customWidth="1"/>
+    <col min="4" max="4" width="82.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.1333333333333" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="2:5">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="148.5" spans="2:5">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:5">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" ht="27" spans="2:5">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="27" spans="2:5">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:4">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="4:5">
-      <c r="D10" s="15"/>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" ht="54" spans="2:5">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" ht="54" spans="2:5">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" ht="27" spans="2:5">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" ht="27" spans="2:5">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" ht="40.5" spans="2:5">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" ht="27" spans="2:5">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" ht="81" spans="2:5">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" ht="94.5" spans="2:4">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" ht="54" spans="2:4">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="2:5">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="C30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:5">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" ht="148.5" spans="2:5">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="C32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" ht="27" spans="2:4">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="C33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" ht="27" spans="2:4">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="9" t="s">
+      <c r="C34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" ht="27" spans="2:4">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="9" t="s">
+      <c r="C35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" ht="54" spans="2:5">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" ht="81" spans="2:5">
-      <c r="B40" s="8" t="s">
+    <row r="38" ht="81" spans="2:5">
+      <c r="B38" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C38" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D38" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E38" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" ht="40.5" spans="2:5">
-      <c r="B41" s="8" t="s">
+    <row r="39" ht="40.5" spans="2:5">
+      <c r="B39" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="C39" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E39" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" ht="40.5" spans="2:4">
-      <c r="B42" s="8" t="s">
+    <row r="40" ht="40.5" spans="2:4">
+      <c r="B40" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C40" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D40" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" ht="40.5" spans="2:4">
-      <c r="B43" s="8" t="s">
+    <row r="41" ht="40.5" spans="2:4">
+      <c r="B41" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D41" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="8" t="s">
+    <row r="42" spans="2:4">
+      <c r="B42" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C42" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D42" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" ht="67.5" spans="2:4">
-      <c r="B45" s="8" t="s">
+    <row r="43" ht="67.5" spans="2:4">
+      <c r="B43" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="9" t="s">
+      <c r="C43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" ht="81" spans="2:5">
-      <c r="B46" s="8" t="s">
+    <row r="44" ht="81" spans="2:5">
+      <c r="B44" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="9" t="s">
+      <c r="C44" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E44" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" ht="40.5" spans="2:4">
-      <c r="B47" s="8" t="s">
+    <row r="45" ht="40.5" spans="2:4">
+      <c r="B45" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="9" t="s">
+      <c r="C45" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="46" ht="40.5" spans="2:4">
+      <c r="B46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="48" ht="40.5" spans="2:4">
-      <c r="B48" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="8" t="s">
+      <c r="B48" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" ht="81" spans="2:4">
+      <c r="B49" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" ht="40.5" spans="2:5">
+      <c r="B50" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" ht="40.5" spans="2:4">
-      <c r="B50" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" ht="81" spans="2:4">
-      <c r="B51" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" ht="40.5" spans="2:5">
-      <c r="B52" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="D50" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" ht="121.5" spans="2:4">
+      <c r="B51" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" ht="40.5" spans="2:4">
+      <c r="B52" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" ht="121.5" spans="2:4">
-      <c r="B53" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="17" t="s">
+      <c r="D52" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" ht="40.5" spans="2:5">
+      <c r="B53" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" ht="81" spans="2:5">
+      <c r="B54" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="20"/>
+    </row>
+    <row r="56" ht="67.5" spans="2:5">
+      <c r="B56" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" ht="40.5" spans="2:5">
+      <c r="B57" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" ht="54" spans="2:4">
+      <c r="B58" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" ht="54" spans="2:4">
+      <c r="B59" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" ht="81" spans="2:4">
+      <c r="B60" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" ht="40.5" spans="2:4">
-      <c r="B54" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="D60" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" ht="94.5" spans="2:5">
+      <c r="B61" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" ht="54" spans="2:4">
+      <c r="B62" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" ht="40.5" spans="2:5">
-      <c r="B55" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="D62" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" ht="67.5" spans="2:4">
+      <c r="B63" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" ht="81" spans="2:5">
-      <c r="B56" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="D63" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" ht="94.5" spans="2:4">
+      <c r="B64" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" ht="27" spans="2:5">
+      <c r="B65" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" ht="40.5" spans="2:4">
+      <c r="B66" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E57" s="18"/>
-    </row>
-    <row r="58" ht="67.5" spans="2:5">
-      <c r="B58" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" ht="40.5" spans="2:5">
-      <c r="B59" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E59" s="19"/>
-    </row>
-    <row r="60" ht="54" spans="2:4">
-      <c r="B60" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" ht="54" spans="2:4">
-      <c r="B61" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" ht="81" spans="2:4">
-      <c r="B62" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" ht="94.5" spans="2:5">
-      <c r="B63" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" ht="54" spans="2:4">
-      <c r="B64" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="8" t="s">
+      <c r="D66" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" ht="81" spans="2:4">
+      <c r="B67" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" ht="54" spans="2:4">
+      <c r="B68" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" ht="27" spans="2:4">
+      <c r="B69" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" ht="67.5" spans="2:4">
-      <c r="B65" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="66" ht="94.5" spans="2:4">
-      <c r="B66" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" ht="27" spans="2:5">
-      <c r="B67" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" ht="40.5" spans="2:4">
-      <c r="B68" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" ht="81" spans="2:4">
-      <c r="B69" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" ht="54" spans="2:4">
-      <c r="B70" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>163</v>
+      <c r="D69" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" ht="40.5" spans="2:4">
+      <c r="B70" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="71" ht="27" spans="2:4">
-      <c r="B71" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" ht="40.5" spans="2:4">
-      <c r="B72" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" ht="27" spans="2:4">
-      <c r="B73" s="8" t="s">
+      <c r="B71" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="9" t="s">
+      <c r="C71" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2775,11 +2941,11 @@
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E54:E55"/>
     <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C11 C16 C20 C21 C22 C24 C57 C9:C10 C12:C15 C17:C19 C25:C29 C30:C37 C41:C52 C54:C56 C58:C61 C64:C71 C72:C73 C74:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C11 C16 C20 C21 C22 C24 C55 C9:C10 C12:C15 C17:C19 C25:C29 C30:C37 C39:C50 C52:C54 C56:C59 C62:C69 C70:C71 C72:C1048576">
       <formula1>"整数,布尔值,字符串"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2799,17 +2965,17 @@
     <hyperlink ref="E31" location="参考文献!B13" display="参考文献!B13"/>
     <hyperlink ref="E32" location="参考文献!B14" display="参考文献!B14"/>
     <hyperlink ref="E36" location="参考文献!B15" display="参考文献!B15"/>
-    <hyperlink ref="E40" location="参考文献!B16" display="参考文献!B16"/>
-    <hyperlink ref="E41" location="参考文献!B17" display="参考文献!B17"/>
+    <hyperlink ref="E38" location="参考文献!B16" display="参考文献!B16"/>
+    <hyperlink ref="E39" location="参考文献!B17" display="参考文献!B17"/>
     <hyperlink ref="E20:E21" location="参考文献!B7" display="参考文献!B7"/>
-    <hyperlink ref="E46" location="参考文献!B19" display="参考文献!B19"/>
-    <hyperlink ref="E52" location="参考文献!B20" display="参考文献!B20"/>
+    <hyperlink ref="E44" location="参考文献!B19" display="参考文献!B19"/>
+    <hyperlink ref="E50" location="参考文献!B20" display="参考文献!B20"/>
     <hyperlink ref="E23" location="参考文献!B21" display="参考文献!B21"/>
-    <hyperlink ref="E55" location="参考文献!B22" display="参考文献!B22"/>
-    <hyperlink ref="E56" location="参考文献!B23" display="参考文献!B23"/>
-    <hyperlink ref="E58:E59" location="参考文献!B24" display="参考文献!B24"/>
-    <hyperlink ref="E63" location="参考文献!B25" display="参考文献!B25"/>
-    <hyperlink ref="E67" location="参考文献!B27" display="参考文献!B27"/>
+    <hyperlink ref="E53" location="参考文献!B22" display="参考文献!B22"/>
+    <hyperlink ref="E54" location="参考文献!B23" display="参考文献!B23"/>
+    <hyperlink ref="E56:E57" location="参考文献!B24" display="参考文献!B24"/>
+    <hyperlink ref="E61" location="参考文献!B25" display="参考文献!B25"/>
+    <hyperlink ref="E65" location="参考文献!B27" display="参考文献!B27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2820,10 +2986,254 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="22.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="85.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="79.625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="81" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" ht="121.5" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" ht="81" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" ht="351" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" ht="94.5" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" ht="283.5" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4.11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="https://stackoverflow.com/questions/3761276/when-should-i-use-tcp-nodelay-and-when-tcp-cork&#10;https://stackoverflow.com/questions/22124098/is-there-any-significant-difference-between-tcp-cork-and-tcp-nodelay-in-this-use" tooltip="https://stackoverflow.com/questions/3761276/when-should-i-use-tcp-nodelay-and-when-tcp-cork"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://blog.csdn.net/wuyongmao/article/details/126237201"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2833,225 +3243,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>213</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>217</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>219</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="7" ht="40.5" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" ht="54" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" ht="40.5" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>193</v>
+        <v>233</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>235</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3091,29 +3501,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://lotabout.me/2021/Linux-TCP-Options/"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>